--- a/public/demoFiles/cab.xlsx
+++ b/public/demoFiles/cab.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="82">
   <si>
     <t>Site_Id</t>
   </si>
@@ -269,6 +269,9 @@
   </si>
   <si>
     <t>Number_Of_Days</t>
+  </si>
+  <si>
+    <t>Total_Amount</t>
   </si>
 </sst>
 </file>
@@ -313,7 +316,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -336,11 +339,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -348,6 +362,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -630,10 +647,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -652,7 +669,7 @@
     <col min="13" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>77</v>
       </c>
@@ -671,8 +688,11 @@
       <c r="F1" s="4" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F7" s="2"/>
     </row>
   </sheetData>

--- a/public/demoFiles/cab.xlsx
+++ b/public/demoFiles/cab.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\network\public\demoFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\network_old\public\demoFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="83">
   <si>
     <t>Site_Id</t>
   </si>
@@ -272,6 +272,9 @@
   </si>
   <si>
     <t>Total_Amount</t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
 </sst>
 </file>
@@ -647,10 +650,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -669,7 +672,7 @@
     <col min="13" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>77</v>
       </c>
@@ -691,8 +694,11 @@
       <c r="G1" s="5" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F7" s="2"/>
     </row>
   </sheetData>
